--- a/output/season_of_the_viper_2020.xlsx
+++ b/output/season_of_the_viper_2020.xlsx
@@ -58,7 +58,7 @@
     <t>Wlastelin</t>
   </si>
   <si>
-    <t>wangid1</t>
+    <t>wangid2021</t>
   </si>
   <si>
     <t>Green-Knight</t>
@@ -70,7 +70,7 @@
     <t>lllPukalll</t>
   </si>
   <si>
-    <t>iluxa228</t>
+    <t>BigKukuRUzina35</t>
   </si>
   <si>
     <t>Damorquis</t>
@@ -97,7 +97,7 @@
     <t>So1ento</t>
   </si>
   <si>
-    <t>xCyBerZz</t>
+    <t>xXxd4Rkk3V1nxXxD</t>
   </si>
   <si>
     <t>Javis99</t>
@@ -118,7 +118,7 @@
     <t>theshaggynuts</t>
   </si>
   <si>
-    <t>IDONTFLINCH</t>
+    <t>Danirai</t>
   </si>
   <si>
     <t>enerGiiX</t>
@@ -148,7 +148,7 @@
     <t>MrSweetPiggy</t>
   </si>
   <si>
-    <t>苏墨</t>
+    <t>萌萌小西几</t>
   </si>
   <si>
     <t>Akela114</t>
@@ -163,7 +163,7 @@
     <t>한쿡은조흔나라</t>
   </si>
   <si>
-    <t>9kjer</t>
+    <t>DziewiateSerce</t>
   </si>
   <si>
     <t>Arcansor</t>
@@ -253,7 +253,7 @@
     <t>AgentCooper-</t>
   </si>
   <si>
-    <t>Sh1ro1</t>
+    <t>倒惹</t>
   </si>
   <si>
     <t>AFTshow</t>
@@ -340,7 +340,7 @@
     <t>Shaszy</t>
   </si>
   <si>
-    <t>赫妞佩妞特</t>
+    <t>letigo</t>
   </si>
   <si>
     <t>伯恩安德森</t>
@@ -418,7 +418,7 @@
     <t>第五息冷</t>
   </si>
   <si>
-    <t>陽陽瑪</t>
+    <t>埃斯特庄园的喷泉</t>
   </si>
   <si>
     <t>Mico1613</t>
@@ -478,7 +478,7 @@
     <t>spellingbee</t>
   </si>
   <si>
-    <t>Fox-Art</t>
+    <t>Foxart79</t>
   </si>
   <si>
     <t>Wumblez13</t>
@@ -508,7 +508,7 @@
     <t>昂宁</t>
   </si>
   <si>
-    <t>青丘帝姬</t>
+    <t>青丘帝女</t>
   </si>
   <si>
     <t>沉默的伊利丹</t>
@@ -556,10 +556,10 @@
     <t>Rucas''</t>
   </si>
   <si>
-    <t>morelife44</t>
-  </si>
-  <si>
-    <t>小新哥</t>
+    <t>-_V1PER_-</t>
+  </si>
+  <si>
+    <t>五石散人</t>
   </si>
   <si>
     <t>overtherain</t>
@@ -598,7 +598,7 @@
     <t>RunForrestRun04</t>
   </si>
   <si>
-    <t>dnt1997</t>
+    <t>格城</t>
   </si>
   <si>
     <t>东楚</t>
@@ -631,7 +631,7 @@
     <t>kinrd80</t>
   </si>
   <si>
-    <t>DKM2493</t>
+    <t>Kabistan</t>
   </si>
   <si>
     <t>Protezny</t>
@@ -640,7 +640,7 @@
     <t>woyge</t>
   </si>
   <si>
-    <t>正面人物</t>
+    <t>解放</t>
   </si>
   <si>
     <t>shuanghua18</t>
@@ -697,10 +697,10 @@
     <t>徐平安</t>
   </si>
   <si>
-    <t>WitcherinoGwentino</t>
-  </si>
-  <si>
-    <t>IDIsbanace</t>
+    <t>PerformanceMD</t>
+  </si>
+  <si>
+    <t>MrDisbalance</t>
   </si>
   <si>
     <t>BuryaDi</t>
@@ -796,13 +796,13 @@
     <t>TN_jamedi</t>
   </si>
   <si>
-    <t>vg_reverie</t>
+    <t>Sovreign95</t>
   </si>
   <si>
     <t>.deeka___</t>
   </si>
   <si>
-    <t>RacyMayhem</t>
+    <t>Airish62</t>
   </si>
   <si>
     <t>KusokStula</t>
@@ -913,7 +913,7 @@
     <t>Leks72</t>
   </si>
   <si>
-    <t>Shupe_Mage</t>
+    <t>swim_strim</t>
   </si>
   <si>
     <t>gwenntero</t>
@@ -1006,7 +1006,7 @@
     <t>Cromat66</t>
   </si>
   <si>
-    <t>Q_o</t>
+    <t>-K_O_T_I_K-</t>
   </si>
   <si>
     <t>Vika73</t>
@@ -1042,7 +1042,7 @@
     <t>oceanchen</t>
   </si>
   <si>
-    <t>FallenAngel_666</t>
+    <t>RockStar_666</t>
   </si>
   <si>
     <t>Galdor_Luelle</t>
@@ -1180,7 +1180,7 @@
     <t>p13_rr3</t>
   </si>
   <si>
-    <t>pawlikus</t>
+    <t>ReynevanP</t>
   </si>
   <si>
     <t>movius00</t>
@@ -1219,13 +1219,13 @@
     <t>B1rdperson</t>
   </si>
   <si>
-    <t>InvincibleHolden</t>
+    <t>完美男性</t>
   </si>
   <si>
     <t>BG老沙</t>
   </si>
   <si>
-    <t>kudoushinihci</t>
+    <t>MXCPJJ</t>
   </si>
   <si>
     <t>Nimraphel</t>
@@ -1234,7 +1234,7 @@
     <t>HIGUITA20</t>
   </si>
   <si>
-    <t>Quen123</t>
+    <t>Ken_0n</t>
   </si>
   <si>
     <t>MrSTIKOS</t>
@@ -1300,7 +1300,7 @@
     <t>AntonMarynkin</t>
   </si>
   <si>
-    <t>Na_zareeeeee</t>
+    <t>CaraFiora</t>
   </si>
   <si>
     <t>CuneMode</t>
@@ -1351,7 +1351,7 @@
     <t>Shannon97</t>
   </si>
   <si>
-    <t>TA_JMJWilson</t>
+    <t>JMJWilson23</t>
   </si>
   <si>
     <t>Chanting L</t>
@@ -1390,7 +1390,7 @@
     <t>CatrionaGwent</t>
   </si>
   <si>
-    <t>lskildum</t>
+    <t>Sound_of_Snow</t>
   </si>
   <si>
     <t>ferpofbb</t>
@@ -1441,7 +1441,7 @@
     <t>Yennefer+</t>
   </si>
   <si>
-    <t>vktr_vktr</t>
+    <t>T-3OOO</t>
   </si>
   <si>
     <t>Light070</t>
@@ -1471,7 +1471,7 @@
     <t>valerinda1977</t>
   </si>
   <si>
-    <t>triangleral</t>
+    <t>Trianglerq</t>
   </si>
   <si>
     <t>N00BSAUCE38</t>
@@ -1486,7 +1486,7 @@
     <t>krysu</t>
   </si>
   <si>
-    <t>hochu_kushat</t>
+    <t>yungxristcutwrist</t>
   </si>
   <si>
     <t>Dean197</t>
@@ -1501,7 +1501,7 @@
     <t>davidherrera94</t>
   </si>
   <si>
-    <t>DragonflEye</t>
+    <t>TheHorridViy</t>
   </si>
   <si>
     <t>Shaman133707</t>
@@ -1543,7 +1543,7 @@
     <t>danchinov</t>
   </si>
   <si>
-    <t>Queen_of_the_chads</t>
+    <t>Syndikitty</t>
   </si>
   <si>
     <t>Fanist</t>
@@ -1657,7 +1657,7 @@
     <t>TheOverM1nd</t>
   </si>
   <si>
-    <t>notathrowaway</t>
+    <t>GWENTPartner</t>
   </si>
   <si>
     <t>Clauz86</t>
@@ -1678,7 +1678,7 @@
     <t>NasehRey</t>
   </si>
   <si>
-    <t>永远都会注视着诺艾尔团长的底层团员</t>
+    <t>与艾莉欧团长在秋天的单相思</t>
   </si>
   <si>
     <t>malice_tale</t>
@@ -1774,7 +1774,7 @@
     <t>tago0211</t>
   </si>
   <si>
-    <t>Levy96</t>
+    <t>Livay96</t>
   </si>
   <si>
     <t>圆圆小皮蛋</t>
@@ -1816,7 +1816,7 @@
     <t>Dirt_Orange_air</t>
   </si>
   <si>
-    <t>DuelInThe</t>
+    <t>Kotowari_XIV</t>
   </si>
   <si>
     <t>blakeleman</t>
@@ -1942,13 +1942,13 @@
     <t>生命风暴</t>
   </si>
   <si>
-    <t>数字没了就行</t>
+    <t>hn2008</t>
   </si>
   <si>
     <t>PaxRomana395</t>
   </si>
   <si>
-    <t>TarguZ</t>
+    <t>MushroomMSTR</t>
   </si>
   <si>
     <t>TixyNixy</t>
@@ -2074,7 +2074,7 @@
     <t>StealBeak</t>
   </si>
   <si>
-    <t>逝今</t>
+    <t>可憐國服一群市儈臉</t>
   </si>
   <si>
     <t>TM_Frei_1917</t>
@@ -2203,7 +2203,7 @@
     <t>Vic97</t>
   </si>
   <si>
-    <t>G00S_</t>
+    <t>GOOS_</t>
   </si>
   <si>
     <t>HappyNya</t>
@@ -2251,7 +2251,7 @@
     <t>Arctico86</t>
   </si>
   <si>
-    <t>SteelWolverine</t>
+    <t>iancm1997</t>
   </si>
   <si>
     <t>Angua_Uberwald</t>
@@ -2272,7 +2272,7 @@
     <t>rzasinho</t>
   </si>
   <si>
-    <t>Radszu</t>
+    <t>D_Wolf_D</t>
   </si>
   <si>
     <t>WOLFxSDC</t>
@@ -2338,7 +2338,7 @@
     <t>RASTAWIKY</t>
   </si>
   <si>
-    <t>-Adri-</t>
+    <t>TM_Adri</t>
   </si>
   <si>
     <t>FAIR_LAW</t>
@@ -2374,7 +2374,7 @@
     <t>pimmler</t>
   </si>
   <si>
-    <t>MastiGame</t>
+    <t>Domm92</t>
   </si>
   <si>
     <t>eillinggel</t>
@@ -2560,7 +2560,7 @@
     <t>Inari100</t>
   </si>
   <si>
-    <t>DiedinTilt</t>
+    <t>SoManyWords</t>
   </si>
   <si>
     <t>Bruce瘟</t>
@@ -2671,7 +2671,7 @@
     <t>Selandr</t>
   </si>
   <si>
-    <t>Jarlaxxe</t>
+    <t>Rauko7</t>
   </si>
   <si>
     <t>OgKush10</t>
@@ -2782,7 +2782,7 @@
     <t>KLAC-KLAC</t>
   </si>
   <si>
-    <t>落葉船</t>
+    <t>夜幕丶冲锋</t>
   </si>
   <si>
     <t>Boulderback</t>
@@ -2842,7 +2842,7 @@
     <t>Sharkevichus</t>
   </si>
   <si>
-    <t>Lionheart12</t>
+    <t>Xurreus</t>
   </si>
   <si>
     <t>rezonn0</t>
@@ -2965,7 +2965,7 @@
     <t>FrankieTchang</t>
   </si>
   <si>
-    <t>徐北游</t>
+    <t>发牌员真是个小天才</t>
   </si>
   <si>
     <t>Presence1016</t>
@@ -3031,7 +3031,7 @@
     <t>YURA_RAKETA</t>
   </si>
   <si>
-    <t>Casper_01</t>
+    <t>_C4SPER</t>
   </si>
   <si>
     <t>bonevyr1972</t>
@@ -3265,7 +3265,7 @@
     <t>Tennagh</t>
   </si>
   <si>
-    <t>JUDAS_PRIEST_5</t>
+    <t>Shadowfax_5</t>
   </si>
   <si>
     <t>saikomaru</t>
@@ -3322,7 +3322,7 @@
     <t>ombre66</t>
   </si>
   <si>
-    <t>nino.93874</t>
+    <t>Nino0305</t>
   </si>
   <si>
     <t>Chez_x</t>
@@ -3529,7 +3529,7 @@
     <t>Cat92Dog</t>
   </si>
   <si>
-    <t>Gwent867</t>
+    <t>PATRIOT.3.6.9</t>
   </si>
   <si>
     <t>Polistirolbeton</t>
@@ -3652,7 +3652,7 @@
     <t>HesserGaming</t>
   </si>
   <si>
-    <t>romanyartsev</t>
+    <t>Son_of_Spardaa</t>
   </si>
   <si>
     <t>Metryl</t>
@@ -3724,7 +3724,7 @@
     <t>Andsad</t>
   </si>
   <si>
-    <t>bluesiss</t>
+    <t>美食播主</t>
   </si>
   <si>
     <t>CuriouSpectatoR2.0</t>
@@ -3787,7 +3787,7 @@
     <t>性感女术士在线发牌</t>
   </si>
   <si>
-    <t>无心.68680</t>
+    <t>老子才是无心</t>
   </si>
   <si>
     <t>IVAN046_GALAXE</t>
@@ -3817,7 +3817,7 @@
     <t>yeetskis</t>
   </si>
   <si>
-    <t>ivans2112</t>
+    <t>ivasik626</t>
   </si>
   <si>
     <t>GeraltOfSiriya</t>
@@ -3829,7 +3829,7 @@
     <t>Voidsushi</t>
   </si>
   <si>
-    <t>RedSolifugae</t>
+    <t>De_Sense</t>
   </si>
   <si>
     <t>Puma_oooo</t>
@@ -4186,7 +4186,7 @@
     <t>Lestarh</t>
   </si>
   <si>
-    <t>A_ZeGreat</t>
+    <t>Comrade_Dmitry</t>
   </si>
   <si>
     <t>DerBobs</t>
@@ -4204,7 +4204,7 @@
     <t>marckarlock</t>
   </si>
   <si>
-    <t>w334</t>
+    <t>SOLDAT228</t>
   </si>
   <si>
     <t>ImSimplyGaunter</t>
@@ -4258,7 +4258,7 @@
     <t>jonanderson</t>
   </si>
   <si>
-    <t>Tobi-93</t>
+    <t>-Darman-</t>
   </si>
   <si>
     <t>supermxpx</t>
@@ -4333,7 +4333,7 @@
     <t>Rusoyak</t>
   </si>
   <si>
-    <t>Snoylin</t>
+    <t>Snoyli</t>
   </si>
   <si>
     <t>Dharx</t>
@@ -4426,7 +4426,7 @@
     <t>jazzminton</t>
   </si>
   <si>
-    <t>Hatem94</t>
+    <t>hasharef</t>
   </si>
   <si>
     <t>天外飞ye</t>
@@ -4462,7 +4462,7 @@
     <t>火腿炒蛋</t>
   </si>
   <si>
-    <t>Daughter-of-Aigioh</t>
+    <t>-Animeicona-</t>
   </si>
   <si>
     <t>SHIZA838</t>
@@ -4483,7 +4483,7 @@
     <t>Coffee_Lake</t>
   </si>
   <si>
-    <t>混血普林斯</t>
+    <t>Juvenileback</t>
   </si>
   <si>
     <t>sarvar97</t>
@@ -4576,7 +4576,7 @@
     <t>THE_SLEEPER</t>
   </si>
   <si>
-    <t>DarthLothins</t>
+    <t>darthlothins</t>
   </si>
   <si>
     <t>洪淤青</t>
@@ -4672,19 +4672,19 @@
     <t>Sasha_09</t>
   </si>
   <si>
-    <t>Red_Hood7</t>
+    <t>SamSilverhand</t>
   </si>
   <si>
     <t>artyj</t>
   </si>
   <si>
-    <t>Sanyasanya</t>
+    <t>Mr_Redboy</t>
   </si>
   <si>
     <t>Winterfear</t>
   </si>
   <si>
-    <t>teemowa</t>
+    <t>Petrichor39</t>
   </si>
   <si>
     <t>qq619146555</t>
@@ -4768,7 +4768,7 @@
     <t>Paccka34uk</t>
   </si>
   <si>
-    <t>EnslaveEight</t>
+    <t>BewilderedCiri</t>
   </si>
   <si>
     <t>Infest3d</t>
@@ -4969,10 +4969,10 @@
     <t>Jerome_e</t>
   </si>
   <si>
-    <t>LudAntOn</t>
-  </si>
-  <si>
-    <t>Daddy_E</t>
+    <t>Senhonta</t>
+  </si>
+  <si>
+    <t>-UwU</t>
   </si>
   <si>
     <t>Tmcg1990</t>
@@ -4987,7 +4987,7 @@
     <t>elSoy</t>
   </si>
   <si>
-    <t>VodkaForXh</t>
+    <t>NextCorner</t>
   </si>
   <si>
     <t>BaffoMet</t>
@@ -5140,7 +5140,7 @@
     <t>BottaFett</t>
   </si>
   <si>
-    <t>_im_your_joy</t>
+    <t>imyour_joy</t>
   </si>
   <si>
     <t>2P루이지</t>
@@ -5176,7 +5176,7 @@
     <t>过往游客</t>
   </si>
   <si>
-    <t>DreamyScreams</t>
+    <t>DreamyDrago</t>
   </si>
   <si>
     <t>ElMerloLoco</t>
@@ -5209,7 +5209,7 @@
     <t>WatchFlake</t>
   </si>
   <si>
-    <t>MaerlynO</t>
+    <t>Maerlyn0</t>
   </si>
   <si>
     <t>DarrylRocks</t>
@@ -5266,7 +5266,7 @@
     <t>VanitasMCMXCV</t>
   </si>
   <si>
-    <t>烟雨離歌</t>
+    <t>彼處水如酒</t>
   </si>
   <si>
     <t>Pierre240</t>
@@ -5302,7 +5302,7 @@
     <t>DragonMother</t>
   </si>
   <si>
-    <t>_Donquixote_</t>
+    <t>CR_San</t>
   </si>
   <si>
     <t>Kenkoo</t>
@@ -5386,7 +5386,7 @@
     <t>Osli_Xhindoli</t>
   </si>
   <si>
-    <t>Alexandr06061994</t>
+    <t>.G.W.E.N.T.</t>
   </si>
   <si>
     <t>GaryAjax</t>
@@ -5398,10 +5398,10 @@
     <t>Skazlan</t>
   </si>
   <si>
-    <t>PetitCheval</t>
-  </si>
-  <si>
-    <t>psycho22</t>
+    <t>_WyZorN_</t>
+  </si>
+  <si>
+    <t>CaranthirOfAenElle</t>
   </si>
   <si>
     <t>赛季py出牌快点</t>
@@ -5467,7 +5467,7 @@
     <t>디어</t>
   </si>
   <si>
-    <t>adamwerty123</t>
+    <t>gonwer</t>
   </si>
   <si>
     <t>DEONESE</t>
@@ -5674,7 +5674,7 @@
     <t>PhillioN</t>
   </si>
   <si>
-    <t>雀眠</t>
+    <t>howyoufindme</t>
   </si>
   <si>
     <t>Ser丶Leon</t>
@@ -5734,7 +5734,7 @@
     <t>JOAO_VANESSA</t>
   </si>
   <si>
-    <t>ASSSsimilation</t>
+    <t>Yesmylord1</t>
   </si>
   <si>
     <t>Savias</t>
@@ -5770,7 +5770,7 @@
     <t>Cosmos_Zero</t>
   </si>
   <si>
-    <t>IRONATION</t>
+    <t>IRONSTAIN</t>
   </si>
   <si>
     <t>alpakalipsa</t>
@@ -5818,7 +5818,7 @@
     <t>GIANNIS511</t>
   </si>
   <si>
-    <t>yag_mI</t>
+    <t>Fateee</t>
   </si>
   <si>
     <t>Boris_Godunov</t>
@@ -5827,7 +5827,7 @@
     <t>WIZtrimmer</t>
   </si>
   <si>
-    <t>Robert_the_dog.</t>
+    <t>-Robert_the_dog-</t>
   </si>
   <si>
     <t>ExilicNomad</t>
@@ -5911,7 +5911,7 @@
     <t>luli147</t>
   </si>
   <si>
-    <t>DOBER124RU</t>
+    <t>DobermanOFF</t>
   </si>
   <si>
     <t>666bartimeus666</t>
@@ -5935,7 +5935,7 @@
     <t>MrFibonacci</t>
   </si>
   <si>
-    <t>Sir_Drew_Solo</t>
+    <t>Hawgplex</t>
   </si>
   <si>
     <t>eotinb</t>
@@ -5989,7 +5989,7 @@
     <t>FrazzyNZ</t>
   </si>
   <si>
-    <t>loli_lewder</t>
+    <t>anie1999</t>
   </si>
   <si>
     <t>razorstars</t>
@@ -6025,7 +6025,7 @@
     <t>Nape02</t>
   </si>
   <si>
-    <t>Merryguan</t>
+    <t>SunWukonk</t>
   </si>
   <si>
     <t>ArtemLab</t>
@@ -6067,7 +6067,7 @@
     <t>Yurakan</t>
   </si>
   <si>
-    <t>PS_02</t>
+    <t>P.A.W.E.L</t>
   </si>
   <si>
     <t>Vityan51</t>
@@ -6109,7 +6109,7 @@
     <t>wall_flower</t>
   </si>
   <si>
-    <t>wojtko91</t>
+    <t>LordPotato91</t>
   </si>
   <si>
     <t>CoreaUra</t>
@@ -6139,7 +6139,7 @@
     <t>Beezey</t>
   </si>
   <si>
-    <t>Hallgrim_Hauksson</t>
+    <t>Elam_Harnish</t>
   </si>
   <si>
     <t>Talifabian</t>
@@ -6457,7 +6457,7 @@
     <t>William_Chiu</t>
   </si>
   <si>
-    <t>H1gen</t>
+    <t>Dillerium</t>
   </si>
   <si>
     <t>Decritt</t>
@@ -6496,7 +6496,7 @@
     <t>弄玉儿</t>
   </si>
   <si>
-    <t>inst.Damir.KRD</t>
+    <t>Cherkes.</t>
   </si>
   <si>
     <t>Dosaku</t>
@@ -6553,7 +6553,7 @@
     <t>Suslangerd</t>
   </si>
   <si>
-    <t>SickyBu</t>
+    <t>Sergief</t>
   </si>
   <si>
     <t>Telemekis</t>
@@ -6586,7 +6586,7 @@
     <t>Insts.vercetti</t>
   </si>
   <si>
-    <t>Canabi</t>
+    <t>Canabiro</t>
   </si>
   <si>
     <t>Jacarelli</t>
@@ -6664,7 +6664,7 @@
     <t>Domi-kun</t>
   </si>
   <si>
-    <t>Superband</t>
+    <t>bloodheist</t>
   </si>
   <si>
     <t>sokramento</t>
@@ -6694,7 +6694,7 @@
     <t>El_Cupakabra</t>
   </si>
   <si>
-    <t>_mt</t>
+    <t>MinskNotDead</t>
   </si>
   <si>
     <t>Igorat92</t>
@@ -6706,7 +6706,7 @@
     <t>Ir0nmike</t>
   </si>
   <si>
-    <t>Changleaaaa</t>
+    <t>阿士匹灵live</t>
   </si>
   <si>
     <t>Modest73</t>
@@ -6733,7 +6733,7 @@
     <t>Bogdan88545</t>
   </si>
   <si>
-    <t>Depugnare</t>
+    <t>Boogieman._.</t>
   </si>
   <si>
     <t>ajeda</t>
@@ -6748,7 +6748,7 @@
     <t>Sngeshkaa</t>
   </si>
   <si>
-    <t>malenkiykapral</t>
+    <t>Hamlet.</t>
   </si>
   <si>
     <t>FaRt_GuRzUF</t>
@@ -6769,7 +6769,7 @@
     <t>gerald1231</t>
   </si>
   <si>
-    <t>pech_15</t>
+    <t>l_PeChKa_l</t>
   </si>
   <si>
     <t>Hoheub</t>
@@ -6904,7 +6904,7 @@
     <t>charonferryman</t>
   </si>
   <si>
-    <t>河山游历者</t>
+    <t>骑上北极熊去驰骋疆场吧</t>
   </si>
   <si>
     <t>Jan1976</t>
@@ -7138,13 +7138,13 @@
     <t>新居田亜香里</t>
   </si>
   <si>
-    <t>Und_asta</t>
+    <t>B_abay</t>
   </si>
   <si>
     <t>HorizonsHunter</t>
   </si>
   <si>
-    <t>带带双截棍</t>
+    <t>你的街头在燃烧</t>
   </si>
   <si>
     <t>兔打牛兔打牛</t>
@@ -7153,7 +7153,7 @@
     <t>KleinGreat</t>
   </si>
   <si>
-    <t>allenli.42575</t>
+    <t>Realize2021</t>
   </si>
   <si>
     <t>Sexmisja</t>
@@ -7189,13 +7189,13 @@
     <t>HelloDarkness...</t>
   </si>
   <si>
-    <t>qalpwsqalp</t>
+    <t>Alperen_Gul</t>
   </si>
   <si>
     <t>ILasharaAndSas</t>
   </si>
   <si>
-    <t>kukuruznoe.pole</t>
+    <t>trop.fort</t>
   </si>
   <si>
     <t>有為</t>
@@ -7228,7 +7228,7 @@
     <t>我的哇哦会把你撕成碎片</t>
   </si>
   <si>
-    <t>CooperIsalnd</t>
+    <t>奇萨尔皮尼</t>
   </si>
   <si>
     <t>Ithmarii</t>
@@ -7300,7 +7300,7 @@
     <t>young.74688</t>
   </si>
   <si>
-    <t>vitleon</t>
+    <t>viт</t>
   </si>
   <si>
     <t>TsangChing</t>
@@ -7315,7 +7315,7 @@
     <t>Mr.Pickles17</t>
   </si>
   <si>
-    <t>Nihir</t>
+    <t>ArtNhr</t>
   </si>
   <si>
     <t>Pitdrag0n</t>
@@ -7642,10 +7642,10 @@
     <t>ajraiden</t>
   </si>
   <si>
-    <t>Vgamigo</t>
-  </si>
-  <si>
-    <t>JanBergen</t>
+    <t>Rikkkick</t>
+  </si>
+  <si>
+    <t>LeoWhiteFang</t>
   </si>
   <si>
     <t>Carlos.Pri</t>
@@ -7738,7 +7738,7 @@
     <t>PioQpioq</t>
   </si>
   <si>
-    <t>bandidokeith89</t>
+    <t>HELL_KAISER_RYO</t>
   </si>
   <si>
     <t>HakimiV</t>
@@ -7825,7 +7825,7 @@
     <t>9mpulse</t>
   </si>
   <si>
-    <t>소크라테스</t>
+    <t>알키비아데스</t>
   </si>
   <si>
     <t>NoMercy1488</t>
@@ -7936,7 +7936,7 @@
     <t>Kkdead</t>
   </si>
   <si>
-    <t>WildDojazdDruga</t>
+    <t>EVG_931</t>
   </si>
   <si>
     <t>dominik90511</t>
@@ -8095,7 +8095,7 @@
     <t>PopKoRn92</t>
   </si>
   <si>
-    <t>kozix82</t>
+    <t>Kozix82</t>
   </si>
   <si>
     <t>Entschuldigen</t>
@@ -8212,7 +8212,7 @@
     <t>skipjack44</t>
   </si>
   <si>
-    <t>Marmajdo</t>
+    <t>Wyla96</t>
   </si>
   <si>
     <t>Leo-Joe</t>
@@ -8254,7 +8254,7 @@
     <t>vn_kot_z</t>
   </si>
   <si>
-    <t>JU_STER</t>
+    <t>4EiZ</t>
   </si>
   <si>
     <t>Radovid32</t>
@@ -8347,7 +8347,7 @@
     <t>Silney</t>
   </si>
   <si>
-    <t>Msanpit</t>
+    <t>M_Sanpit</t>
   </si>
   <si>
     <t>artur993</t>
@@ -8530,7 +8530,7 @@
     <t>Waglik_FC</t>
   </si>
   <si>
-    <t>NeverGGNilfgaard</t>
+    <t>2Fit2Lift</t>
   </si>
   <si>
     <t>Felipovisk</t>
@@ -8551,7 +8551,7 @@
     <t>acbmn113</t>
   </si>
   <si>
-    <t>leonid_cpp</t>
+    <t>RustedInt</t>
   </si>
   <si>
     <t>PriestQisha</t>
